--- a/Analysis/Input/workflow_template_object_types.xlsx
+++ b/Analysis/Input/workflow_template_object_types.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">WorkflowTemplate Object type</t>
   </si>
   <si>
     <t xml:space="preserve">EPMTaskTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPMReviewTaskTemplate</t>
   </si>
 </sst>
 </file>
@@ -122,7 +119,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,7 +249,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -271,9 +268,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
